--- a/src/test/java/com/expedia/testdata/TestData.xlsx
+++ b/src/test/java/com/expedia/testdata/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0" refMode="R1C1"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Origin</t>
   </si>
@@ -49,22 +50,16 @@
     <t>Return Date</t>
   </si>
   <si>
-    <t>15/05/2019</t>
-  </si>
-  <si>
-    <t>25/05/2019</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
-    <t>15/06/2019</t>
-  </si>
-  <si>
-    <t>11/06/2019</t>
-  </si>
-  <si>
-    <t>25/06/2019</t>
+    <t>15/09/2019</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
   </si>
 </sst>
 </file>
@@ -419,7 +414,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -481,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
